--- a/frontend-cemos/public/assets/content/intendencia/17-280-2019/script/m1.xlsx
+++ b/frontend-cemos/public/assets/content/intendencia/17-280-2019/script/m1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="93">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pág 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normas Offset</t>
   </si>
   <si>
     <t xml:space="preserve">De acordo com as definições estabelecidas na Portaria nº 280/2019, o conceito de "Adicionalidade" refere-se a:</t>
@@ -391,12 +388,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -595,440 +596,440 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="3:13"/>
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.49"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C4" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="0" t="s">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="J6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="0" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="J9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="H11" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="E13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="F13" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="H13" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="I13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>
